--- a/策划/Levels.xlsx
+++ b/策划/Levels.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="894" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="894" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="!表格式" sheetId="7" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="463">
   <si>
     <t>sheet名字格式：中文名|英文名，否则不会导出</t>
   </si>
@@ -454,6 +454,9 @@
     <t>墓穴</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>50</t>
   </si>
   <si>
@@ -1691,14 +1694,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1866,12 +1862,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2180,46 +2176,49 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2231,97 +2230,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2988,8 +2984,8 @@
   <sheetPr/>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
@@ -3116,8 +3112,8 @@
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="1">
-        <v>3</v>
+      <c r="D4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>27</v>
@@ -3129,16 +3125,16 @@
         <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="99.75" spans="1:11">
@@ -3146,10 +3142,10 @@
         <v>10002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
+        <v>57</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>27</v>
@@ -3161,16 +3157,16 @@
         <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3185,8 +3181,8 @@
   <sheetPr/>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
@@ -3311,10 +3307,10 @@
         <v>10001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>27</v>
@@ -3329,10 +3325,10 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:11">
@@ -3340,10 +3336,10 @@
         <v>10002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>27</v>
@@ -3358,10 +3354,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3407,7 +3403,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -3442,7 +3438,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
@@ -3500,10 +3496,10 @@
         <v>10001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -3512,22 +3508,22 @@
         <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" s="1">
         <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" ht="71.25" spans="1:11">
@@ -3535,10 +3531,10 @@
         <v>10002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -3547,22 +3543,22 @@
         <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" s="1">
         <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" ht="71.25" spans="1:11">
@@ -3570,34 +3566,34 @@
         <v>10003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G6" s="1">
         <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3637,55 +3633,55 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -3699,55 +3695,55 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -3817,13 +3813,13 @@
         <v>10001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -3879,13 +3875,13 @@
         <v>10002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -3941,13 +3937,13 @@
         <v>10003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" s="2">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E6" s="2">
         <v>6</v>
@@ -4003,13 +3999,13 @@
         <v>10004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2">
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E7" s="2">
         <v>8</v>
@@ -4065,13 +4061,13 @@
         <v>10005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
@@ -4127,13 +4123,13 @@
         <v>10006</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E9" s="2">
         <v>12</v>
@@ -4189,13 +4185,13 @@
         <v>10007</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C10" s="2">
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E10" s="2">
         <v>14</v>
@@ -4251,13 +4247,13 @@
         <v>10008</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2">
         <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E11" s="2">
         <v>16</v>
@@ -4313,13 +4309,13 @@
         <v>10009</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" s="2">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E12" s="2">
         <v>18</v>
@@ -4375,13 +4371,13 @@
         <v>10010</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2">
         <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E13" s="2">
         <v>20</v>
@@ -4437,13 +4433,13 @@
         <v>10011</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C14" s="2">
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E14" s="2">
         <v>22</v>
@@ -4499,13 +4495,13 @@
         <v>10012</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C15" s="2">
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E15" s="2">
         <v>24</v>
@@ -4561,13 +4557,13 @@
         <v>10013</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C16" s="2">
         <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E16" s="2">
         <v>26</v>
@@ -4623,13 +4619,13 @@
         <v>10014</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C17" s="2">
         <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E17" s="2">
         <v>28</v>
@@ -4685,13 +4681,13 @@
         <v>10015</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C18" s="2">
         <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E18" s="2">
         <v>30</v>
@@ -4747,13 +4743,13 @@
         <v>10016</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C19" s="2">
         <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E19" s="2">
         <v>32</v>
@@ -4809,13 +4805,13 @@
         <v>10017</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C20" s="2">
         <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E20" s="2">
         <v>34</v>
@@ -4871,13 +4867,13 @@
         <v>10018</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C21" s="2">
         <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E21" s="2">
         <v>36</v>
@@ -4933,13 +4929,13 @@
         <v>10019</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C22" s="2">
         <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E22" s="2">
         <v>38</v>
@@ -4995,13 +4991,13 @@
         <v>10020</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C23" s="2">
         <v>40</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E23" s="2">
         <v>40</v>
@@ -5057,13 +5053,13 @@
         <v>10021</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C24" s="2">
         <v>42</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E24" s="2">
         <v>42</v>
@@ -5119,13 +5115,13 @@
         <v>10022</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C25" s="2">
         <v>44</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E25" s="2">
         <v>44</v>
@@ -5181,13 +5177,13 @@
         <v>10023</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" s="2">
         <v>46</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E26" s="2">
         <v>46</v>
@@ -5243,13 +5239,13 @@
         <v>10024</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C27" s="2">
         <v>48</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E27" s="2">
         <v>48</v>
@@ -5305,13 +5301,13 @@
         <v>10025</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C28" s="2">
         <v>50</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E28" s="2">
         <v>50</v>
@@ -5367,13 +5363,13 @@
         <v>10026</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C29" s="2">
         <v>52</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E29" s="2">
         <v>52</v>
@@ -5429,13 +5425,13 @@
         <v>10027</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C30" s="2">
         <v>54</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E30" s="2">
         <v>54</v>
@@ -5491,13 +5487,13 @@
         <v>10028</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C31" s="2">
         <v>56</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E31" s="2">
         <v>56</v>
@@ -5553,13 +5549,13 @@
         <v>10029</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C32" s="2">
         <v>58</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E32" s="2">
         <v>58</v>
@@ -5615,13 +5611,13 @@
         <v>10030</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C33" s="2">
         <v>60</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E33" s="2">
         <v>60</v>
@@ -5677,13 +5673,13 @@
         <v>10031</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C34" s="2">
         <v>62</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E34" s="2">
         <v>62</v>
@@ -5739,13 +5735,13 @@
         <v>10032</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C35" s="2">
         <v>64</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E35" s="2">
         <v>64</v>
@@ -5801,13 +5797,13 @@
         <v>10033</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C36" s="2">
         <v>66</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E36" s="2">
         <v>66</v>
@@ -5863,13 +5859,13 @@
         <v>10034</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C37" s="2">
         <v>68</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E37" s="2">
         <v>68</v>
@@ -5925,13 +5921,13 @@
         <v>10035</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C38" s="2">
         <v>70</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E38" s="2">
         <v>70</v>
@@ -5987,13 +5983,13 @@
         <v>10036</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C39" s="2">
         <v>72</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E39" s="2">
         <v>72</v>
@@ -6049,13 +6045,13 @@
         <v>10037</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C40" s="2">
         <v>74</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E40" s="2">
         <v>74</v>
@@ -6111,13 +6107,13 @@
         <v>10038</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C41" s="2">
         <v>76</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E41" s="2">
         <v>76</v>
@@ -6173,13 +6169,13 @@
         <v>10039</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C42" s="2">
         <v>78</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E42" s="2">
         <v>78</v>
@@ -6235,13 +6231,13 @@
         <v>10040</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C43" s="2">
         <v>80</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E43" s="2">
         <v>80</v>
@@ -6297,13 +6293,13 @@
         <v>10041</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C44" s="2">
         <v>82</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E44" s="2">
         <v>82</v>
@@ -6359,13 +6355,13 @@
         <v>10042</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C45" s="2">
         <v>84</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E45" s="2">
         <v>84</v>
@@ -6421,13 +6417,13 @@
         <v>10043</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C46" s="2">
         <v>86</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E46" s="2">
         <v>86</v>
@@ -6483,13 +6479,13 @@
         <v>10044</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C47" s="2">
         <v>88</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E47" s="2">
         <v>88</v>
@@ -6545,13 +6541,13 @@
         <v>10045</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C48" s="2">
         <v>90</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E48" s="2">
         <v>90</v>
@@ -6607,13 +6603,13 @@
         <v>10046</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C49" s="2">
         <v>92</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E49" s="2">
         <v>92</v>
@@ -6669,13 +6665,13 @@
         <v>10047</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C50" s="2">
         <v>94</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E50" s="2">
         <v>94</v>
@@ -6731,13 +6727,13 @@
         <v>10048</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C51" s="2">
         <v>96</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E51" s="2">
         <v>96</v>
@@ -6793,13 +6789,13 @@
         <v>10049</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C52" s="2">
         <v>98</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E52" s="2">
         <v>98</v>
@@ -6855,13 +6851,13 @@
         <v>10050</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C53" s="2">
         <v>100</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E53" s="2">
         <v>100</v>
@@ -6917,13 +6913,13 @@
         <v>10051</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C54" s="2">
         <v>102</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E54" s="2">
         <v>102</v>
@@ -6979,13 +6975,13 @@
         <v>10052</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C55" s="2">
         <v>104</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E55" s="2">
         <v>104</v>
@@ -7041,13 +7037,13 @@
         <v>10053</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C56" s="2">
         <v>106</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E56" s="2">
         <v>106</v>
@@ -7103,13 +7099,13 @@
         <v>10054</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C57" s="2">
         <v>108</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E57" s="2">
         <v>108</v>
@@ -7165,13 +7161,13 @@
         <v>10055</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C58" s="2">
         <v>110</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E58" s="2">
         <v>110</v>
@@ -7227,13 +7223,13 @@
         <v>10056</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C59" s="2">
         <v>112</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E59" s="2">
         <v>112</v>
@@ -7289,13 +7285,13 @@
         <v>10057</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C60" s="2">
         <v>114</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E60" s="2">
         <v>114</v>
@@ -7351,13 +7347,13 @@
         <v>10058</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C61" s="2">
         <v>116</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E61" s="2">
         <v>116</v>
@@ -7413,13 +7409,13 @@
         <v>10059</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C62" s="2">
         <v>118</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E62" s="2">
         <v>118</v>
@@ -7475,13 +7471,13 @@
         <v>10060</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C63" s="2">
         <v>120</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E63" s="2">
         <v>120</v>
@@ -7537,13 +7533,13 @@
         <v>10061</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C64" s="2">
         <v>122</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E64" s="2">
         <v>122</v>
@@ -7599,13 +7595,13 @@
         <v>10062</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C65" s="2">
         <v>124</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E65" s="2">
         <v>124</v>
@@ -7661,13 +7657,13 @@
         <v>10063</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C66" s="2">
         <v>126</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E66" s="2">
         <v>126</v>
@@ -7723,13 +7719,13 @@
         <v>10064</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C67" s="2">
         <v>128</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E67" s="2">
         <v>128</v>
@@ -7785,13 +7781,13 @@
         <v>10065</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C68" s="2">
         <v>130</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E68" s="2">
         <v>130</v>
@@ -7847,13 +7843,13 @@
         <v>10066</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C69" s="2">
         <v>132</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E69" s="2">
         <v>132</v>
@@ -7909,13 +7905,13 @@
         <v>10067</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C70" s="2">
         <v>134</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E70" s="2">
         <v>134</v>
@@ -7971,13 +7967,13 @@
         <v>10068</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C71" s="2">
         <v>136</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E71" s="2">
         <v>136</v>
@@ -8033,13 +8029,13 @@
         <v>10069</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C72" s="2">
         <v>138</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E72" s="2">
         <v>138</v>
@@ -8095,13 +8091,13 @@
         <v>10070</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C73" s="2">
         <v>140</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E73" s="2">
         <v>140</v>
@@ -8157,13 +8153,13 @@
         <v>10071</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C74" s="2">
         <v>142</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E74" s="2">
         <v>142</v>
@@ -8219,13 +8215,13 @@
         <v>10072</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C75" s="2">
         <v>144</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E75" s="2">
         <v>144</v>
@@ -8281,13 +8277,13 @@
         <v>10073</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C76" s="2">
         <v>146</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E76" s="2">
         <v>146</v>
@@ -8343,13 +8339,13 @@
         <v>10074</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C77" s="2">
         <v>148</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E77" s="2">
         <v>148</v>
@@ -8405,13 +8401,13 @@
         <v>10075</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C78" s="2">
         <v>150</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E78" s="2">
         <v>150</v>
@@ -8467,13 +8463,13 @@
         <v>10076</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C79" s="2">
         <v>152</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E79" s="2">
         <v>152</v>
@@ -8529,13 +8525,13 @@
         <v>10077</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C80" s="2">
         <v>154</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E80" s="2">
         <v>154</v>
@@ -8591,13 +8587,13 @@
         <v>10078</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C81" s="2">
         <v>156</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E81" s="2">
         <v>156</v>
@@ -8653,13 +8649,13 @@
         <v>10079</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C82" s="2">
         <v>158</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E82" s="2">
         <v>158</v>
@@ -8715,13 +8711,13 @@
         <v>10080</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C83" s="2">
         <v>160</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E83" s="2">
         <v>160</v>
@@ -8777,13 +8773,13 @@
         <v>10081</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C84" s="2">
         <v>162</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E84" s="2">
         <v>162</v>
@@ -8839,13 +8835,13 @@
         <v>10082</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C85" s="2">
         <v>164</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E85" s="2">
         <v>164</v>
@@ -8901,13 +8897,13 @@
         <v>10083</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C86" s="2">
         <v>166</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E86" s="2">
         <v>166</v>
@@ -8963,13 +8959,13 @@
         <v>10084</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C87" s="2">
         <v>168</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E87" s="2">
         <v>168</v>
@@ -9025,13 +9021,13 @@
         <v>10085</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C88" s="2">
         <v>170</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E88" s="2">
         <v>170</v>
@@ -9087,13 +9083,13 @@
         <v>10086</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C89" s="2">
         <v>172</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E89" s="2">
         <v>172</v>
@@ -9149,13 +9145,13 @@
         <v>10087</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C90" s="2">
         <v>174</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E90" s="2">
         <v>174</v>
@@ -9211,13 +9207,13 @@
         <v>10088</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C91" s="2">
         <v>176</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E91" s="2">
         <v>176</v>
@@ -9273,13 +9269,13 @@
         <v>10089</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C92" s="2">
         <v>178</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E92" s="2">
         <v>178</v>
@@ -9335,13 +9331,13 @@
         <v>10090</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C93" s="2">
         <v>180</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E93" s="2">
         <v>180</v>
@@ -9397,13 +9393,13 @@
         <v>10091</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C94" s="2">
         <v>182</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E94" s="2">
         <v>182</v>
@@ -9459,13 +9455,13 @@
         <v>10092</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C95" s="2">
         <v>184</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E95" s="2">
         <v>184</v>
@@ -9521,13 +9517,13 @@
         <v>10093</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C96" s="2">
         <v>186</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E96" s="2">
         <v>186</v>
@@ -9583,13 +9579,13 @@
         <v>10094</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C97" s="2">
         <v>188</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E97" s="2">
         <v>188</v>
@@ -9645,13 +9641,13 @@
         <v>10095</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C98" s="2">
         <v>190</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E98" s="2">
         <v>190</v>
@@ -9707,13 +9703,13 @@
         <v>10096</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C99" s="2">
         <v>192</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E99" s="2">
         <v>192</v>
@@ -9769,13 +9765,13 @@
         <v>10097</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C100" s="2">
         <v>194</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E100" s="2">
         <v>194</v>
@@ -9831,13 +9827,13 @@
         <v>10098</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C101" s="2">
         <v>196</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E101" s="2">
         <v>196</v>
@@ -9893,13 +9889,13 @@
         <v>10099</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C102" s="2">
         <v>198</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E102" s="2">
         <v>198</v>
@@ -9955,13 +9951,13 @@
         <v>10100</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C103" s="2">
         <v>200</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E103" s="2">
         <v>200</v>
@@ -10017,13 +10013,13 @@
         <v>10101</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C104" s="2">
         <v>202</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E104" s="2">
         <v>202</v>
@@ -10079,13 +10075,13 @@
         <v>10102</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C105" s="2">
         <v>204</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E105" s="2">
         <v>204</v>
@@ -10141,13 +10137,13 @@
         <v>10103</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C106" s="2">
         <v>206</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E106" s="2">
         <v>206</v>
@@ -10203,13 +10199,13 @@
         <v>10104</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C107" s="2">
         <v>208</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E107" s="2">
         <v>208</v>
@@ -10265,13 +10261,13 @@
         <v>10105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C108" s="2">
         <v>210</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E108" s="2">
         <v>210</v>
@@ -10327,13 +10323,13 @@
         <v>10106</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C109" s="2">
         <v>212</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E109" s="2">
         <v>212</v>
@@ -10389,13 +10385,13 @@
         <v>10107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C110" s="2">
         <v>214</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E110" s="2">
         <v>214</v>
@@ -10451,13 +10447,13 @@
         <v>10108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C111" s="2">
         <v>216</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E111" s="2">
         <v>216</v>
@@ -10513,13 +10509,13 @@
         <v>10109</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C112" s="2">
         <v>218</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E112" s="2">
         <v>218</v>
@@ -10575,13 +10571,13 @@
         <v>10110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C113" s="2">
         <v>220</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E113" s="2">
         <v>220</v>
@@ -10637,13 +10633,13 @@
         <v>10111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C114" s="2">
         <v>222</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E114" s="2">
         <v>222</v>
@@ -10699,13 +10695,13 @@
         <v>10112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C115" s="2">
         <v>224</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E115" s="2">
         <v>224</v>
@@ -10761,13 +10757,13 @@
         <v>10113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C116" s="2">
         <v>226</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E116" s="2">
         <v>226</v>
@@ -10823,13 +10819,13 @@
         <v>10114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C117" s="2">
         <v>228</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E117" s="2">
         <v>228</v>
@@ -10885,13 +10881,13 @@
         <v>10115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C118" s="2">
         <v>230</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E118" s="2">
         <v>230</v>
@@ -10947,13 +10943,13 @@
         <v>10116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C119" s="2">
         <v>232</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E119" s="2">
         <v>232</v>
@@ -11009,13 +11005,13 @@
         <v>10117</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C120" s="2">
         <v>234</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E120" s="2">
         <v>234</v>
@@ -11071,13 +11067,13 @@
         <v>10118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C121" s="2">
         <v>236</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E121" s="2">
         <v>236</v>
@@ -11133,13 +11129,13 @@
         <v>10119</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C122" s="2">
         <v>238</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E122" s="2">
         <v>238</v>
@@ -11195,13 +11191,13 @@
         <v>10120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C123" s="2">
         <v>240</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E123" s="2">
         <v>240</v>
@@ -11257,13 +11253,13 @@
         <v>10121</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C124" s="2">
         <v>242</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E124" s="2">
         <v>242</v>
@@ -11319,13 +11315,13 @@
         <v>10122</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C125" s="2">
         <v>244</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E125" s="2">
         <v>244</v>
@@ -11381,13 +11377,13 @@
         <v>10123</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C126" s="2">
         <v>246</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E126" s="2">
         <v>246</v>
@@ -11443,13 +11439,13 @@
         <v>10124</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C127" s="2">
         <v>248</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E127" s="2">
         <v>248</v>
@@ -11505,13 +11501,13 @@
         <v>10125</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C128" s="2">
         <v>250</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E128" s="2">
         <v>250</v>
@@ -11567,13 +11563,13 @@
         <v>10126</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C129" s="2">
         <v>252</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E129" s="2">
         <v>252</v>
@@ -11629,13 +11625,13 @@
         <v>10127</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C130" s="2">
         <v>254</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E130" s="2">
         <v>254</v>
@@ -11691,13 +11687,13 @@
         <v>10128</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C131" s="2">
         <v>256</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E131" s="2">
         <v>256</v>
@@ -11753,13 +11749,13 @@
         <v>10129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C132" s="2">
         <v>258</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E132" s="2">
         <v>258</v>
@@ -11815,13 +11811,13 @@
         <v>10130</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C133" s="2">
         <v>260</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E133" s="2">
         <v>260</v>
@@ -11877,13 +11873,13 @@
         <v>10131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C134" s="2">
         <v>262</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E134" s="2">
         <v>262</v>
@@ -11939,13 +11935,13 @@
         <v>10132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C135" s="2">
         <v>264</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E135" s="2">
         <v>264</v>
@@ -12001,13 +11997,13 @@
         <v>10133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C136" s="2">
         <v>266</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E136" s="2">
         <v>266</v>
@@ -12063,13 +12059,13 @@
         <v>10134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C137" s="2">
         <v>268</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E137" s="2">
         <v>268</v>
@@ -12125,13 +12121,13 @@
         <v>10135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C138" s="2">
         <v>270</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E138" s="2">
         <v>270</v>
@@ -12187,13 +12183,13 @@
         <v>10136</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C139" s="2">
         <v>272</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E139" s="2">
         <v>272</v>
@@ -12249,13 +12245,13 @@
         <v>10137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C140" s="2">
         <v>274</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E140" s="2">
         <v>274</v>
@@ -12311,13 +12307,13 @@
         <v>10138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C141" s="2">
         <v>276</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E141" s="2">
         <v>276</v>
@@ -12373,13 +12369,13 @@
         <v>10139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C142" s="2">
         <v>278</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E142" s="2">
         <v>278</v>
@@ -12435,13 +12431,13 @@
         <v>10140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C143" s="2">
         <v>280</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E143" s="2">
         <v>280</v>
@@ -12497,13 +12493,13 @@
         <v>10141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C144" s="2">
         <v>282</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E144" s="2">
         <v>282</v>
@@ -12559,13 +12555,13 @@
         <v>10142</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C145" s="2">
         <v>284</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E145" s="2">
         <v>284</v>
@@ -12621,13 +12617,13 @@
         <v>10143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C146" s="2">
         <v>286</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E146" s="2">
         <v>286</v>
@@ -12683,13 +12679,13 @@
         <v>10144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C147" s="2">
         <v>288</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E147" s="2">
         <v>288</v>
@@ -12745,13 +12741,13 @@
         <v>10145</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C148" s="2">
         <v>290</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E148" s="2">
         <v>290</v>
@@ -12807,13 +12803,13 @@
         <v>10146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C149" s="2">
         <v>292</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E149" s="2">
         <v>292</v>
@@ -12869,13 +12865,13 @@
         <v>10147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C150" s="2">
         <v>294</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E150" s="2">
         <v>294</v>
@@ -12931,13 +12927,13 @@
         <v>10148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C151" s="2">
         <v>296</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E151" s="2">
         <v>296</v>
@@ -12993,13 +12989,13 @@
         <v>10149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C152" s="2">
         <v>298</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E152" s="2">
         <v>298</v>
@@ -13055,13 +13051,13 @@
         <v>10150</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C153" s="2">
         <v>300</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E153" s="2">
         <v>300</v>
@@ -13117,13 +13113,13 @@
         <v>10151</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C154" s="2">
         <v>302</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E154" s="2">
         <v>302</v>
@@ -13179,13 +13175,13 @@
         <v>10152</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C155" s="2">
         <v>304</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E155" s="2">
         <v>304</v>
@@ -13241,13 +13237,13 @@
         <v>10153</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C156" s="2">
         <v>306</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E156" s="2">
         <v>306</v>
@@ -13303,13 +13299,13 @@
         <v>10154</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C157" s="2">
         <v>308</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E157" s="2">
         <v>308</v>
@@ -13365,13 +13361,13 @@
         <v>10155</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C158" s="2">
         <v>310</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E158" s="2">
         <v>310</v>
@@ -13427,13 +13423,13 @@
         <v>10156</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C159" s="2">
         <v>312</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E159" s="2">
         <v>312</v>
@@ -13489,13 +13485,13 @@
         <v>10157</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C160" s="2">
         <v>314</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E160" s="2">
         <v>314</v>
@@ -13551,13 +13547,13 @@
         <v>10158</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C161" s="2">
         <v>316</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E161" s="2">
         <v>316</v>
@@ -13613,13 +13609,13 @@
         <v>10159</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C162" s="2">
         <v>318</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E162" s="2">
         <v>318</v>
@@ -13675,13 +13671,13 @@
         <v>10160</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C163" s="2">
         <v>320</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E163" s="2">
         <v>320</v>
@@ -13737,13 +13733,13 @@
         <v>10161</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C164" s="2">
         <v>322</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E164" s="2">
         <v>322</v>
@@ -13799,13 +13795,13 @@
         <v>10162</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C165" s="2">
         <v>324</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E165" s="2">
         <v>324</v>
@@ -13861,13 +13857,13 @@
         <v>10163</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C166" s="2">
         <v>326</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E166" s="2">
         <v>326</v>
@@ -13923,13 +13919,13 @@
         <v>10164</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C167" s="2">
         <v>328</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E167" s="2">
         <v>328</v>
@@ -13985,13 +13981,13 @@
         <v>10165</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C168" s="2">
         <v>330</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E168" s="2">
         <v>330</v>
@@ -14047,13 +14043,13 @@
         <v>10166</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C169" s="2">
         <v>332</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E169" s="2">
         <v>332</v>
@@ -14109,13 +14105,13 @@
         <v>10167</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C170" s="2">
         <v>334</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E170" s="2">
         <v>334</v>
@@ -14171,13 +14167,13 @@
         <v>10168</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C171" s="2">
         <v>336</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E171" s="2">
         <v>336</v>
@@ -14233,13 +14229,13 @@
         <v>10169</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C172" s="2">
         <v>338</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E172" s="2">
         <v>338</v>
@@ -14295,13 +14291,13 @@
         <v>10170</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C173" s="2">
         <v>340</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E173" s="2">
         <v>340</v>
@@ -14357,13 +14353,13 @@
         <v>10171</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C174" s="2">
         <v>342</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E174" s="2">
         <v>342</v>
@@ -14419,13 +14415,13 @@
         <v>10172</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C175" s="2">
         <v>344</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E175" s="2">
         <v>344</v>
@@ -14481,13 +14477,13 @@
         <v>10173</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C176" s="2">
         <v>346</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E176" s="2">
         <v>346</v>
@@ -14543,13 +14539,13 @@
         <v>10174</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C177" s="2">
         <v>348</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E177" s="2">
         <v>348</v>
@@ -14605,13 +14601,13 @@
         <v>10175</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C178" s="2">
         <v>350</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E178" s="2">
         <v>350</v>
@@ -14667,13 +14663,13 @@
         <v>10176</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C179" s="2">
         <v>352</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E179" s="2">
         <v>352</v>
@@ -14729,13 +14725,13 @@
         <v>10177</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C180" s="2">
         <v>354</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E180" s="2">
         <v>354</v>
@@ -14791,13 +14787,13 @@
         <v>10178</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C181" s="2">
         <v>356</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E181" s="2">
         <v>356</v>
@@ -14853,13 +14849,13 @@
         <v>10179</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C182" s="2">
         <v>358</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E182" s="2">
         <v>358</v>
@@ -14915,13 +14911,13 @@
         <v>10180</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C183" s="2">
         <v>360</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E183" s="2">
         <v>360</v>
@@ -14977,13 +14973,13 @@
         <v>10181</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C184" s="2">
         <v>362</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E184" s="2">
         <v>362</v>
@@ -15039,13 +15035,13 @@
         <v>10182</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C185" s="2">
         <v>364</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E185" s="2">
         <v>364</v>
@@ -15101,13 +15097,13 @@
         <v>10183</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C186" s="2">
         <v>366</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E186" s="2">
         <v>366</v>
@@ -15163,13 +15159,13 @@
         <v>10184</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C187" s="2">
         <v>368</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E187" s="2">
         <v>368</v>
@@ -15225,13 +15221,13 @@
         <v>10185</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C188" s="2">
         <v>370</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E188" s="2">
         <v>370</v>
@@ -15287,13 +15283,13 @@
         <v>10186</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C189" s="2">
         <v>372</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E189" s="2">
         <v>372</v>
@@ -15349,13 +15345,13 @@
         <v>10187</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C190" s="2">
         <v>374</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E190" s="2">
         <v>374</v>
@@ -15411,13 +15407,13 @@
         <v>10188</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C191" s="2">
         <v>376</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E191" s="2">
         <v>376</v>
@@ -15473,13 +15469,13 @@
         <v>10189</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C192" s="2">
         <v>378</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E192" s="2">
         <v>378</v>
@@ -15535,13 +15531,13 @@
         <v>10190</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C193" s="2">
         <v>380</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E193" s="2">
         <v>380</v>
@@ -15597,13 +15593,13 @@
         <v>10191</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C194" s="2">
         <v>382</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E194" s="2">
         <v>382</v>
@@ -15659,13 +15655,13 @@
         <v>10192</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C195" s="2">
         <v>384</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E195" s="2">
         <v>384</v>
@@ -15721,13 +15717,13 @@
         <v>10193</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C196" s="2">
         <v>386</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E196" s="2">
         <v>386</v>
@@ -15783,13 +15779,13 @@
         <v>10194</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C197" s="2">
         <v>388</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E197" s="2">
         <v>388</v>
@@ -15845,13 +15841,13 @@
         <v>10195</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C198" s="2">
         <v>390</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E198" s="2">
         <v>390</v>
@@ -15907,13 +15903,13 @@
         <v>10196</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C199" s="2">
         <v>392</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E199" s="2">
         <v>392</v>
@@ -15969,13 +15965,13 @@
         <v>10197</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C200" s="2">
         <v>394</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E200" s="2">
         <v>394</v>
@@ -16031,13 +16027,13 @@
         <v>10198</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C201" s="2">
         <v>396</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E201" s="2">
         <v>396</v>
@@ -16093,13 +16089,13 @@
         <v>10199</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C202" s="2">
         <v>398</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E202" s="2">
         <v>398</v>
@@ -16155,13 +16151,13 @@
         <v>10200</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C203" s="2">
         <v>400</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E203" s="2">
         <v>400</v>
@@ -16217,13 +16213,13 @@
         <v>10201</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C204" s="2">
         <v>402</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E204" s="2">
         <v>402</v>
@@ -16279,13 +16275,13 @@
         <v>10202</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C205" s="2">
         <v>404</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E205" s="2">
         <v>404</v>
@@ -16341,13 +16337,13 @@
         <v>10203</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C206" s="2">
         <v>406</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E206" s="2">
         <v>406</v>
@@ -16403,13 +16399,13 @@
         <v>10204</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C207" s="2">
         <v>408</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E207" s="2">
         <v>408</v>
@@ -16465,13 +16461,13 @@
         <v>10205</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C208" s="2">
         <v>410</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E208" s="2">
         <v>410</v>
@@ -16527,13 +16523,13 @@
         <v>10206</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C209" s="2">
         <v>412</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E209" s="2">
         <v>412</v>
@@ -16589,13 +16585,13 @@
         <v>10207</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C210" s="2">
         <v>414</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E210" s="2">
         <v>414</v>
@@ -16651,13 +16647,13 @@
         <v>10208</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C211" s="2">
         <v>416</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E211" s="2">
         <v>416</v>
@@ -16713,13 +16709,13 @@
         <v>10209</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C212" s="2">
         <v>418</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E212" s="2">
         <v>418</v>
@@ -16775,13 +16771,13 @@
         <v>10210</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C213" s="2">
         <v>420</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E213" s="2">
         <v>420</v>
@@ -16837,13 +16833,13 @@
         <v>10211</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C214" s="2">
         <v>422</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E214" s="2">
         <v>422</v>
@@ -16899,13 +16895,13 @@
         <v>10212</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C215" s="2">
         <v>424</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E215" s="2">
         <v>424</v>
@@ -16961,13 +16957,13 @@
         <v>10213</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C216" s="2">
         <v>426</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E216" s="2">
         <v>426</v>
@@ -17023,13 +17019,13 @@
         <v>10214</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C217" s="2">
         <v>428</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E217" s="2">
         <v>428</v>
@@ -17085,13 +17081,13 @@
         <v>10215</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C218" s="2">
         <v>430</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E218" s="2">
         <v>430</v>
@@ -17147,13 +17143,13 @@
         <v>10216</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C219" s="2">
         <v>432</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E219" s="2">
         <v>432</v>
@@ -17209,13 +17205,13 @@
         <v>10217</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C220" s="2">
         <v>434</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E220" s="2">
         <v>434</v>
@@ -17271,13 +17267,13 @@
         <v>10218</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C221" s="2">
         <v>436</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E221" s="2">
         <v>436</v>
@@ -17333,13 +17329,13 @@
         <v>10219</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C222" s="2">
         <v>438</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E222" s="2">
         <v>438</v>
@@ -17395,13 +17391,13 @@
         <v>10220</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C223" s="2">
         <v>440</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E223" s="2">
         <v>440</v>
@@ -17457,13 +17453,13 @@
         <v>10221</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C224" s="2">
         <v>442</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E224" s="2">
         <v>442</v>
@@ -17519,13 +17515,13 @@
         <v>10222</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C225" s="2">
         <v>444</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E225" s="2">
         <v>444</v>
@@ -17581,13 +17577,13 @@
         <v>10223</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C226" s="2">
         <v>446</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E226" s="2">
         <v>446</v>
@@ -17643,13 +17639,13 @@
         <v>10224</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C227" s="2">
         <v>448</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E227" s="2">
         <v>448</v>
@@ -17705,13 +17701,13 @@
         <v>10225</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C228" s="2">
         <v>450</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E228" s="2">
         <v>450</v>
@@ -17767,13 +17763,13 @@
         <v>10226</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C229" s="2">
         <v>452</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E229" s="2">
         <v>452</v>
@@ -17829,13 +17825,13 @@
         <v>10227</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C230" s="2">
         <v>454</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E230" s="2">
         <v>454</v>
@@ -17891,13 +17887,13 @@
         <v>10228</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C231" s="2">
         <v>456</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E231" s="2">
         <v>456</v>
@@ -17953,13 +17949,13 @@
         <v>10229</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C232" s="2">
         <v>458</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E232" s="2">
         <v>458</v>
@@ -18015,13 +18011,13 @@
         <v>10230</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C233" s="2">
         <v>460</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E233" s="2">
         <v>460</v>
@@ -18077,13 +18073,13 @@
         <v>10231</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C234" s="2">
         <v>462</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E234" s="2">
         <v>462</v>
@@ -18139,13 +18135,13 @@
         <v>10232</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C235" s="2">
         <v>464</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E235" s="2">
         <v>464</v>
@@ -18201,13 +18197,13 @@
         <v>10233</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C236" s="2">
         <v>466</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E236" s="2">
         <v>466</v>
@@ -18263,13 +18259,13 @@
         <v>10234</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C237" s="2">
         <v>468</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E237" s="2">
         <v>468</v>
@@ -18325,13 +18321,13 @@
         <v>10235</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C238" s="2">
         <v>470</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E238" s="2">
         <v>470</v>
@@ -18387,13 +18383,13 @@
         <v>10236</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C239" s="2">
         <v>472</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E239" s="2">
         <v>472</v>
@@ -18449,13 +18445,13 @@
         <v>10237</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C240" s="2">
         <v>474</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E240" s="2">
         <v>474</v>
@@ -18511,13 +18507,13 @@
         <v>10238</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C241" s="2">
         <v>476</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E241" s="2">
         <v>476</v>
@@ -18573,13 +18569,13 @@
         <v>10239</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C242" s="2">
         <v>478</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E242" s="2">
         <v>478</v>
@@ -18635,13 +18631,13 @@
         <v>10240</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C243" s="2">
         <v>480</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E243" s="2">
         <v>480</v>
@@ -18697,13 +18693,13 @@
         <v>10241</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C244" s="2">
         <v>482</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E244" s="2">
         <v>482</v>
@@ -18759,13 +18755,13 @@
         <v>10242</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C245" s="2">
         <v>484</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E245" s="2">
         <v>484</v>
@@ -18821,13 +18817,13 @@
         <v>10243</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C246" s="2">
         <v>486</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E246" s="2">
         <v>486</v>
@@ -18883,13 +18879,13 @@
         <v>10244</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C247" s="2">
         <v>488</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E247" s="2">
         <v>488</v>
@@ -18945,13 +18941,13 @@
         <v>10245</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C248" s="2">
         <v>490</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E248" s="2">
         <v>490</v>
@@ -19007,13 +19003,13 @@
         <v>10246</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C249" s="2">
         <v>492</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E249" s="2">
         <v>492</v>
@@ -19069,13 +19065,13 @@
         <v>10247</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C250" s="2">
         <v>494</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E250" s="2">
         <v>494</v>
@@ -19131,13 +19127,13 @@
         <v>10248</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C251" s="2">
         <v>496</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E251" s="2">
         <v>496</v>
@@ -19193,13 +19189,13 @@
         <v>10249</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C252" s="2">
         <v>498</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E252" s="2">
         <v>498</v>
@@ -19255,13 +19251,13 @@
         <v>10250</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C253" s="2">
         <v>500</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E253" s="2">
         <v>500</v>
@@ -19317,13 +19313,13 @@
         <v>10251</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C254" s="2">
         <v>502</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E254" s="2">
         <v>502</v>
@@ -19379,13 +19375,13 @@
         <v>10252</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C255" s="2">
         <v>504</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E255" s="2">
         <v>504</v>
@@ -19441,13 +19437,13 @@
         <v>10253</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C256" s="2">
         <v>506</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E256" s="2">
         <v>506</v>
@@ -19503,13 +19499,13 @@
         <v>10254</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C257" s="2">
         <v>508</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E257" s="2">
         <v>508</v>
@@ -19565,13 +19561,13 @@
         <v>10255</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C258" s="2">
         <v>510</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E258" s="2">
         <v>510</v>
@@ -19627,13 +19623,13 @@
         <v>10256</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C259" s="2">
         <v>512</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E259" s="2">
         <v>512</v>
@@ -19689,13 +19685,13 @@
         <v>10257</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C260" s="2">
         <v>514</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E260" s="2">
         <v>514</v>
@@ -19751,13 +19747,13 @@
         <v>10258</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C261" s="2">
         <v>516</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E261" s="2">
         <v>516</v>
@@ -19813,13 +19809,13 @@
         <v>10259</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C262" s="2">
         <v>518</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E262" s="2">
         <v>518</v>
@@ -19875,13 +19871,13 @@
         <v>10260</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C263" s="2">
         <v>520</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E263" s="2">
         <v>520</v>
@@ -19937,13 +19933,13 @@
         <v>10261</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C264" s="2">
         <v>522</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E264" s="2">
         <v>522</v>
@@ -19999,13 +19995,13 @@
         <v>10262</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C265" s="2">
         <v>524</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E265" s="2">
         <v>524</v>
@@ -20061,13 +20057,13 @@
         <v>10263</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C266" s="2">
         <v>526</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E266" s="2">
         <v>526</v>
@@ -20123,13 +20119,13 @@
         <v>10264</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C267" s="2">
         <v>528</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E267" s="2">
         <v>528</v>
@@ -20185,13 +20181,13 @@
         <v>10265</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C268" s="2">
         <v>530</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E268" s="2">
         <v>530</v>
@@ -20247,13 +20243,13 @@
         <v>10266</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C269" s="2">
         <v>532</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E269" s="2">
         <v>532</v>
@@ -20309,13 +20305,13 @@
         <v>10267</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C270" s="2">
         <v>534</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E270" s="2">
         <v>534</v>
@@ -20371,13 +20367,13 @@
         <v>10268</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C271" s="2">
         <v>536</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E271" s="2">
         <v>536</v>
@@ -20433,13 +20429,13 @@
         <v>10269</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C272" s="2">
         <v>538</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E272" s="2">
         <v>538</v>
@@ -20495,13 +20491,13 @@
         <v>10270</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C273" s="2">
         <v>540</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E273" s="2">
         <v>540</v>
@@ -20557,13 +20553,13 @@
         <v>10271</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C274" s="2">
         <v>542</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E274" s="2">
         <v>542</v>
@@ -20619,13 +20615,13 @@
         <v>10272</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C275" s="2">
         <v>544</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E275" s="2">
         <v>544</v>
@@ -20681,13 +20677,13 @@
         <v>10273</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C276" s="2">
         <v>546</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E276" s="2">
         <v>546</v>
@@ -20743,13 +20739,13 @@
         <v>10274</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C277" s="2">
         <v>548</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E277" s="2">
         <v>548</v>
@@ -20805,13 +20801,13 @@
         <v>10275</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C278" s="2">
         <v>550</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E278" s="2">
         <v>550</v>
@@ -20867,13 +20863,13 @@
         <v>10276</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C279" s="2">
         <v>552</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E279" s="2">
         <v>552</v>
@@ -20929,13 +20925,13 @@
         <v>10277</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C280" s="2">
         <v>554</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E280" s="2">
         <v>554</v>
@@ -20991,13 +20987,13 @@
         <v>10278</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C281" s="2">
         <v>556</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E281" s="2">
         <v>556</v>
@@ -21053,13 +21049,13 @@
         <v>10279</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C282" s="2">
         <v>558</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E282" s="2">
         <v>558</v>
@@ -21115,13 +21111,13 @@
         <v>10280</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C283" s="2">
         <v>560</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E283" s="2">
         <v>560</v>
@@ -21177,13 +21173,13 @@
         <v>10281</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C284" s="2">
         <v>562</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E284" s="2">
         <v>562</v>
@@ -21239,13 +21235,13 @@
         <v>10282</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C285" s="2">
         <v>564</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E285" s="2">
         <v>564</v>
@@ -21301,13 +21297,13 @@
         <v>10283</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C286" s="2">
         <v>566</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E286" s="2">
         <v>566</v>
@@ -21363,13 +21359,13 @@
         <v>10284</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C287" s="2">
         <v>568</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E287" s="2">
         <v>568</v>
@@ -21425,13 +21421,13 @@
         <v>10285</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C288" s="2">
         <v>570</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E288" s="2">
         <v>570</v>
@@ -21487,13 +21483,13 @@
         <v>10286</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C289" s="2">
         <v>572</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E289" s="2">
         <v>572</v>
@@ -21549,13 +21545,13 @@
         <v>10287</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C290" s="2">
         <v>574</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E290" s="2">
         <v>574</v>
@@ -21611,13 +21607,13 @@
         <v>10288</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C291" s="2">
         <v>576</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E291" s="2">
         <v>576</v>
@@ -21673,13 +21669,13 @@
         <v>10289</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C292" s="2">
         <v>578</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E292" s="2">
         <v>578</v>
@@ -21735,13 +21731,13 @@
         <v>10290</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C293" s="2">
         <v>580</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E293" s="2">
         <v>580</v>
@@ -21797,13 +21793,13 @@
         <v>10291</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C294" s="2">
         <v>582</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E294" s="2">
         <v>582</v>
@@ -21859,13 +21855,13 @@
         <v>10292</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C295" s="2">
         <v>584</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E295" s="2">
         <v>584</v>
@@ -21921,13 +21917,13 @@
         <v>10293</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C296" s="2">
         <v>586</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E296" s="2">
         <v>586</v>
@@ -21983,13 +21979,13 @@
         <v>10294</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C297" s="2">
         <v>588</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E297" s="2">
         <v>588</v>
@@ -22045,13 +22041,13 @@
         <v>10295</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C298" s="2">
         <v>590</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E298" s="2">
         <v>590</v>
@@ -22107,13 +22103,13 @@
         <v>10296</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C299" s="2">
         <v>592</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E299" s="2">
         <v>592</v>
@@ -22169,13 +22165,13 @@
         <v>10297</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C300" s="2">
         <v>594</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E300" s="2">
         <v>594</v>
@@ -22231,13 +22227,13 @@
         <v>10298</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C301" s="2">
         <v>596</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E301" s="2">
         <v>596</v>
@@ -22293,13 +22289,13 @@
         <v>10299</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C302" s="2">
         <v>598</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E302" s="2">
         <v>598</v>
@@ -22355,13 +22351,13 @@
         <v>10300</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C303" s="2">
         <v>600</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E303" s="2">
         <v>600</v>
@@ -22417,13 +22413,13 @@
         <v>10301</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C304" s="2">
         <v>602</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E304" s="2">
         <v>602</v>
@@ -22479,13 +22475,13 @@
         <v>10302</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C305" s="2">
         <v>604</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E305" s="2">
         <v>604</v>
@@ -22541,13 +22537,13 @@
         <v>10303</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C306" s="2">
         <v>606</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E306" s="2">
         <v>606</v>
@@ -22603,13 +22599,13 @@
         <v>10304</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C307" s="2">
         <v>608</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E307" s="2">
         <v>608</v>
@@ -22665,13 +22661,13 @@
         <v>10305</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C308" s="2">
         <v>610</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E308" s="2">
         <v>610</v>
@@ -22727,13 +22723,13 @@
         <v>10306</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C309" s="2">
         <v>612</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E309" s="2">
         <v>612</v>
@@ -22789,13 +22785,13 @@
         <v>10307</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C310" s="2">
         <v>614</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E310" s="2">
         <v>614</v>
@@ -22851,13 +22847,13 @@
         <v>10308</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C311" s="2">
         <v>616</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E311" s="2">
         <v>616</v>
@@ -22913,13 +22909,13 @@
         <v>10309</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C312" s="2">
         <v>618</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E312" s="2">
         <v>618</v>
@@ -22975,13 +22971,13 @@
         <v>10310</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C313" s="2">
         <v>620</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E313" s="2">
         <v>620</v>
@@ -23037,13 +23033,13 @@
         <v>10311</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C314" s="2">
         <v>622</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E314" s="2">
         <v>622</v>
@@ -23099,13 +23095,13 @@
         <v>10312</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C315" s="2">
         <v>624</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E315" s="2">
         <v>624</v>
@@ -23161,13 +23157,13 @@
         <v>10313</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C316" s="2">
         <v>626</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E316" s="2">
         <v>626</v>
@@ -23223,13 +23219,13 @@
         <v>10314</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C317" s="2">
         <v>628</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E317" s="2">
         <v>628</v>
@@ -23285,13 +23281,13 @@
         <v>10315</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C318" s="2">
         <v>630</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E318" s="2">
         <v>630</v>
@@ -23347,13 +23343,13 @@
         <v>10316</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C319" s="2">
         <v>632</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E319" s="2">
         <v>632</v>
@@ -23409,13 +23405,13 @@
         <v>10317</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C320" s="2">
         <v>634</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E320" s="2">
         <v>634</v>
@@ -23471,13 +23467,13 @@
         <v>10318</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C321" s="2">
         <v>636</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E321" s="2">
         <v>636</v>
@@ -23533,13 +23529,13 @@
         <v>10319</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C322" s="2">
         <v>638</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E322" s="2">
         <v>638</v>
@@ -23595,13 +23591,13 @@
         <v>10320</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C323" s="2">
         <v>640</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E323" s="2">
         <v>640</v>
@@ -23657,13 +23653,13 @@
         <v>10321</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C324" s="2">
         <v>642</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E324" s="2">
         <v>642</v>
@@ -23719,13 +23715,13 @@
         <v>10322</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C325" s="2">
         <v>644</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E325" s="2">
         <v>644</v>
@@ -23781,13 +23777,13 @@
         <v>10323</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C326" s="2">
         <v>646</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E326" s="2">
         <v>646</v>
@@ -23843,13 +23839,13 @@
         <v>10324</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C327" s="2">
         <v>648</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E327" s="2">
         <v>648</v>
@@ -23905,13 +23901,13 @@
         <v>10325</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C328" s="2">
         <v>650</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E328" s="2">
         <v>650</v>
@@ -23967,13 +23963,13 @@
         <v>10326</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C329" s="2">
         <v>652</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E329" s="2">
         <v>652</v>
@@ -24029,13 +24025,13 @@
         <v>10327</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C330" s="2">
         <v>654</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E330" s="2">
         <v>654</v>
@@ -24091,13 +24087,13 @@
         <v>10328</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C331" s="2">
         <v>656</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E331" s="2">
         <v>656</v>
@@ -24153,13 +24149,13 @@
         <v>10329</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C332" s="2">
         <v>658</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E332" s="2">
         <v>658</v>
@@ -24215,13 +24211,13 @@
         <v>10330</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C333" s="2">
         <v>660</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E333" s="2">
         <v>660</v>
@@ -24277,13 +24273,13 @@
         <v>10331</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C334" s="2">
         <v>662</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E334" s="2">
         <v>662</v>
@@ -24339,13 +24335,13 @@
         <v>10332</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C335" s="2">
         <v>664</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E335" s="2">
         <v>664</v>
@@ -24401,13 +24397,13 @@
         <v>10333</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C336" s="2">
         <v>666</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E336" s="2">
         <v>666</v>
@@ -24463,13 +24459,13 @@
         <v>10334</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C337" s="2">
         <v>668</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E337" s="2">
         <v>668</v>
@@ -24525,13 +24521,13 @@
         <v>10335</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C338" s="2">
         <v>670</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E338" s="2">
         <v>670</v>
@@ -24587,13 +24583,13 @@
         <v>10336</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C339" s="2">
         <v>672</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E339" s="2">
         <v>672</v>
@@ -24649,13 +24645,13 @@
         <v>10337</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C340" s="2">
         <v>674</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E340" s="2">
         <v>674</v>
@@ -24711,13 +24707,13 @@
         <v>10338</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C341" s="2">
         <v>676</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E341" s="2">
         <v>676</v>
@@ -24773,13 +24769,13 @@
         <v>10339</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C342" s="2">
         <v>678</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E342" s="2">
         <v>678</v>
@@ -24877,7 +24873,7 @@
         <v>10001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -24885,7 +24881,7 @@
         <v>10002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -24893,7 +24889,7 @@
         <v>10003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/策划/Levels.xlsx
+++ b/策划/Levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\IT\Projects\Laya\Laya2.13.1_beta_framework\策划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079B9AC3-BBCA-4BC7-9966-C6113856420D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85AE3E7-28A1-44B6-B511-FBA035A37AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="894" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="894" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!表格式" sheetId="7" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="副本|FuBen" sheetId="17" r:id="rId3"/>
     <sheet name="秘境|MiJing" sheetId="18" r:id="rId4"/>
     <sheet name="Boss|Boss" sheetId="19" r:id="rId5"/>
-    <sheet name="怪物|Enemy" sheetId="21" r:id="rId6"/>
-    <sheet name="采集|CaiJi" sheetId="20" r:id="rId7"/>
+    <sheet name="采集|CaiJi" sheetId="20" r:id="rId6"/>
+    <sheet name="怪物|Enemy" sheetId="21" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -185,7 +185,33 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{88292FB3-8BA5-498A-9506-6D4D8C537099}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+暂只副本、秘境使用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+-1-无限次
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -229,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="474">
   <si>
     <t>sheet名字格式：中文名|英文名，否则不会导出</t>
   </si>
@@ -1745,6 +1771,46 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gatherCount</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集次数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gatherTime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集时长，秒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>180</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2646,7 +2712,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2835,24 +2903,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="4" width="24.625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="11" width="26.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="7" width="12.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="12" width="26.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>463</v>
       </c>
@@ -2881,16 +2952,19 @@
         <v>11</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>416</v>
       </c>
@@ -2901,31 +2975,34 @@
         <v>418</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2933,31 +3010,34 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>10001</v>
       </c>
@@ -2967,32 +3047,35 @@
       <c r="D4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>35</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>10002</v>
       </c>
@@ -3002,32 +3085,35 @@
       <c r="D5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>40</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>10003</v>
       </c>
@@ -3037,28 +3123,31 @@
       <c r="D6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>45</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3070,6 +3159,112 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U342"/>
   <sheetViews>
@@ -24297,69 +24492,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
-        <v>10001</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
-        <v>10002</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <v>10003</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/策划/Levels.xlsx
+++ b/策划/Levels.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\IT\Projects\Laya\Laya2.13.1_beta_framework\策划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85AE3E7-28A1-44B6-B511-FBA035A37AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D7C402-393D-4061-A5E0-CF6766627089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="894" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="1575" windowWidth="21600" windowHeight="11385" tabRatio="894" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!表格式" sheetId="7" r:id="rId1"/>
     <sheet name="关卡|Level" sheetId="13" r:id="rId2"/>
-    <sheet name="副本|FuBen" sheetId="17" r:id="rId3"/>
-    <sheet name="秘境|MiJing" sheetId="18" r:id="rId4"/>
+    <sheet name="副本|Copy" sheetId="17" r:id="rId3"/>
+    <sheet name="秘境|Secret" sheetId="18" r:id="rId4"/>
     <sheet name="Boss|Boss" sheetId="19" r:id="rId5"/>
-    <sheet name="采集|CaiJi" sheetId="20" r:id="rId6"/>
+    <sheet name="采集|Gather" sheetId="20" r:id="rId6"/>
     <sheet name="怪物|Enemy" sheetId="21" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>

--- a/策划/Levels.xlsx
+++ b/策划/Levels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\IT\Projects\Laya\Laya2.13.1_beta_framework\策划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D7C402-393D-4061-A5E0-CF6766627089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA8095E-BA16-45CE-8077-3FBC7A9F089D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="1575" windowWidth="21600" windowHeight="11385" tabRatio="894" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="469">
   <si>
     <t>sheet名字格式：中文名|英文名，否则不会导出</t>
   </si>
@@ -1790,26 +1790,6 @@
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gatherTime</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集时长，秒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>120</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>180</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3160,21 +3140,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>463</v>
       </c>
@@ -3187,11 +3166,8 @@
       <c r="D1" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>416</v>
       </c>
@@ -3201,22 +3177,16 @@
       <c r="D2" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>10001</v>
       </c>
@@ -3226,11 +3196,8 @@
       <c r="D4" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>10002</v>
       </c>
@@ -3240,11 +3207,8 @@
       <c r="D5" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>10003</v>
       </c>
@@ -3253,9 +3217,6 @@
       </c>
       <c r="D6" s="5" t="s">
         <v>468</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>473</v>
       </c>
     </row>
   </sheetData>
